--- a/data/georgia_census/adjara/batumi/average_wages.xlsx
+++ b/data/georgia_census/adjara/batumi/average_wages.xlsx
@@ -1098,13 +1098,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77DD45D5-9ECF-47FA-87C4-2A8828F7538A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000B00E3-0354-4874-B48B-137FBF624902}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35927310-DE0F-457A-B85D-708C71DCA273}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82A8C610-7A96-4608-AB99-AE36C8EE53DC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E59999F-0D49-4B5F-98F5-647611CC4E89}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{502C7082-5E87-491A-8627-A7DEE9AC0D1B}"/>
 </file>